--- a/biology/Botanique/Liste_des_espèces_d'arbres_de_Guyane/Liste_des_espèces_d'arbres_de_Guyane.xlsx
+++ b/biology/Botanique/Liste_des_espèces_d'arbres_de_Guyane/Liste_des_espèces_d'arbres_de_Guyane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Guyane, plus de 1 000 espèces arborées indigènes étaient répertoriées en 2004[1]. Des listes plus complètes ont été publiée en 2009 (1 581 espèces)[2], et 2022 (1 811 espèces)[3]. De nouvelles espèces sont régulièrement décrites, aussi la liste suivante est loin d'être exhaustive !
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane, plus de 1 000 espèces arborées indigènes étaient répertoriées en 2004. Des listes plus complètes ont été publiée en 2009 (1 581 espèces), et 2022 (1 811 espèces). De nouvelles espèces sont régulièrement décrites, aussi la liste suivante est loin d'être exhaustive !
 Cette liste comprend également des espèces de palmiers, bien que généralement non considérés comme des arbres...
 Note sur la nomenclature :
 Il faut savoir que les noms vernaculaires sont peu fiables : 
@@ -502,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -522,72 +534,328 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Embranchement : Pinophyta
-Classe : Pinopsida
-Famille : Pinaceae
-Pin caraïbe, Pinus caribaea - origine : Amérique centrale (ex : Honduras)
-Embranchement : Magnoliophyta
-Classe : Dicotyledone (Magnoliopsida)
-Famille : Caesalpiniaceae
+          <t>Embranchement : Pinophyta</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Classe : Pinopsida</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Famille : Pinaceae
+Pin caraïbe, Pinus caribaea - origine : Amérique centrale (ex : Honduras)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces arborées allochtone</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Embranchement : Magnoliophyta</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Classe : Dicotyledone (Magnoliopsida)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Famille : Caesalpiniaceae
 Flamboyant, Delonix regia - origine : Madagascar
 Famille : Mimosaceae
 Acacia mangium - origine : Australie - Cette espèce est soupçonnée d'avoir un caractère invasif en zones de savane.
 Acacia falcata - origine : Australie
 Acacia jaune, Acacia farnesiana (Linnaeus) C.L. Willdenow - origine probable : Hispaniola
 Famille : Myrtaceae
-Eucalyptus
-Classe : Monocotyledone (Liliopsida)
-Famille : Arecaceae
+Eucalyptus</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces arborées allochtone</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Embranchement : Magnoliophyta</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Classe : Monocotyledone (Liliopsida)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Famille : Arecaceae
 Palmier royal, Roystonea oleracea - origine : Venezuela et Trinité-et-Tobago
 Palmier royal nain, Veitchia merrillii - origine : Philippines</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Espèces arborées indigènes</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Hormis quelques espèces arbustives ou lianescentes du genre Gnetum ainsi que quelques Zamia de sous-bois, la flore ligneuse autochtone de Guyane ne compte que des  Magnoliophyta (angiospermes).
-Famille : Anacardiaceae
-Bushi cajou, Anacardium spruceanum Bentham ex Engler
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hormis quelques espèces arbustives ou lianescentes du genre Gnetum ainsi que quelques Zamia de sous-bois, la flore ligneuse autochtone de Guyane ne compte que des  Magnoliophyta (angiospermes).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Famille : Anacardiaceae</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bushi cajou, Anacardium spruceanum Bentham ex Engler
 Bushi cajou, Thyrsodium guianense Sagot ex Marchand
 Bushi cajou, Thyrsodium puberulum J.D. Mitchell et Daly
-Tapirira bethanniana J.D. Mitchell - Espèce arborée indigène vulnérable (selon l'UICN)
-Famille : Annonaceae
-Bois-takari, Oxandra asbeckii (Pulle) R.E. Fries
-Xylopia nitida Dunal
-Famille : Apocynaceae
-Baaka mapa, bois vache, Couma guianensis J.B. Aublet
+Tapirira bethanniana J.D. Mitchell - Espèce arborée indigène vulnérable (selon l'UICN)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Famille : Annonaceae</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bois-takari, Oxandra asbeckii (Pulle) R.E. Fries
+Xylopia nitida Dunal</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Famille : Apocynaceae</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Baaka mapa, bois vache, Couma guianensis J.B. Aublet
 Citronnelle blanche, Aspidosperma marcgravianum R.E. Woodson
 Mapa, Parahancornia fasciculata (Poiret) R. Benoist ex Pichon
-Maria congo, Geissospermum sericeum Benth. &amp; Hook. f. ex Miers
-Famille : Araliaceae
-Schefflera decaphylla (Seemann) Harms
-Tobitoutou, Schefflera morototoni (J.B. Aublet) Maguire, Steyermark et Frodin
-Famille : Arecaceae (palmiers)
-[4],[5].
+Maria congo, Geissospermum sericeum Benth. &amp; Hook. f. ex Miers</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Famille : Araliaceae</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Schefflera decaphylla (Seemann) Harms
+Tobitoutou, Schefflera morototoni (J.B. Aublet) Maguire, Steyermark et Frodin</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Famille : Arecaceae (palmiers)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>,.
 Awara-monpè (Awara-monpère), Socratea exorrhiza (Mart.) H. Wendland
 Comou, Oenocarpus bacaba Mart.
 Maripa,  Attalea maripa (Aubl.) Mart.  (syn. Maximiliana maripa  (Aubl.)Drude )
@@ -604,29 +872,199 @@
 Moucaya,  Acrocomia aculeata  (Jacq.) Lodd. ex R.Keith 
 Awara , Astrocaryum vulgare  Mart.
 Zagrinette , Bactris campestris Poepp. in C.F.P.von Martius
-Way,  Geonoma umbraculiformis Wess.Boer
-Famille : Bignoniaceae
-Copaya, Jacaranda copaia (J.B. Aublet) D. Don
+Way,  Geonoma umbraculiformis Wess.Boer</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Famille : Bignoniaceae</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Copaya, Jacaranda copaia (J.B. Aublet) D. Don
 Ebène rose, ébène rouge, Tabebuia impetiginosa (Martius ex A.P. De Candolle) Standley
-Ebène verte, Tabebuia serratifolia (M. Vahl) Nicholson
-Famille : Bombacaceae
-Aganananga,  Catostemma fragrans Bentham
+Ebène verte, Tabebuia serratifolia (M. Vahl) Nicholson</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Famille : Bombacaceae</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Aganananga,  Catostemma fragrans Bentham
 Cacao-rivière, momo, Pachira aquatica J.B. Aublet
 Fromager, Ceiba pentandra (Linnaeus) J. Gaertner
 Mahot coton, Eriotheca crassa (Uittien) A. Robyns
 Mahot coton, Eriotheca globosa (J.B. Aublet) A. Robyns
-Mahot coton, Eriotheca surinamensis (Uittien) A. Robyns
-Famille : Boraginaceae
-Busi kiki kisi, Cordia sagotii I.M. Johnston
-Famille : Burseraceae
-Encens, Protium giganteum Engler
+Mahot coton, Eriotheca surinamensis (Uittien) A. Robyns</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Famille : Boraginaceae</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Busi kiki kisi, Cordia sagotii I.M. Johnston</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Famille : Burseraceae</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Encens, Protium giganteum Engler
 Encens, Protium opacum Swart
 Encens, Protium sagotianum Marchand
 Encens, Protium sp. J. Burman
 Gaan moni, Trattinnickia boliviana (Swart) Daly
-Sali, lebi Sali, Tetragastris altissima (J.B. Aublet) O.P. Swartz
-Famille : Caesalpiniaceae
-Aieoueko, Dimorphandra polyandra R. Benoist
+Sali, lebi Sali, Tetragastris altissima (J.B. Aublet) O.P. Swartz</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Famille : Caesalpiniaceae</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Aieoueko, Dimorphandra polyandra R. Benoist
 Amarante, bois violet, papaati, Peltogyne paniculata Bentham
 Amarante, bois violet, papaati, Peltogyne venosa (M. Vahl) Bentham
 Angélique, Dicorynia guianensis G.J. Amshoff
@@ -642,19 +1080,155 @@
 Wapa, bii udu, Eperua falcata J.B. Aublet
 Wapa-courbaril, gaanbii udu, Eperua grandiflora (J.B. Aublet) Bentham
 Wapa-marécage, watampana, Macrolobium bifolium (J.B. Aublet) Persoon
-Wapa-rivière, wata bii udu, Eperua rubiginosa Miquel
-Famille : Caryocaraceae
-Chawari d'eau, kasanyan, Caryocar microcarpum Ducke
-Chawari grand bois, Caryocar glabrum (J.B. Aublet) Persoon
-Famille : Cecropiaceae
-Bois-canon, bushi-papaye, Cecropia obtusa Trécul
+Wapa-rivière, wata bii udu, Eperua rubiginosa Miquel</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Famille : Caryocaraceae</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Chawari d'eau, kasanyan, Caryocar microcarpum Ducke
+Chawari grand bois, Caryocar glabrum (J.B. Aublet) Persoon</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Famille : Cecropiaceae</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Bois-canon, bushi-papaye, Cecropia obtusa Trécul
 Bois-canon, bushi-papaye, Cecropia sciadophylla Martius
-Pourouma sp. J.B. Aublet
-Famille : Celastraceae
-Goupi, bois-caca, Goupia glabra J.B. Aublet
-Peto, Maytenus oblongata S. Reissek
-Famille : Chrysobalanaceae
-Acioa guianensis, J.B. Aublet
+Pourouma sp. J.B. Aublet</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Famille : Celastraceae</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Goupi, bois-caca, Goupia glabra J.B. Aublet
+Peto, Maytenus oblongata S. Reissek</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Famille : Chrysobalanaceae</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Acioa guianensis, J.B. Aublet
 Gaulette blanche, weti koko, Parinari campestris J.B. Aublet
 Gaulette, Parinari rodolphii Huber
 Gaulette, koko, Parinari sp. J.B. Aublet
@@ -664,29 +1238,165 @@
 Gaulette, koko, Licania heteromorpha Bentham
 Gaulette, koko, Licania membranacea Sagot ex J.M.A. de Lanessan
 Gaulette, koko, Licania micrantha Miquel
-Hirtella bicornis Martius et Zuccarini
-Famille : Clusiaceae
-Lacassi, Caraipa densifolia Martius
+Hirtella bicornis Martius et Zuccarini</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Famille : Clusiaceae</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Lacassi, Caraipa densifolia Martius
 Lacassi, Caraipa racemosa J. Cambessèdes
 Manil-marécage, Symphonia globulifera Linnaeus f.
 Manil-montagne, Moronobea coccinea J.B. Aublet
 Parcouri, Platonia insignis Martius
 Rheedia sp. Linnaeus
-Tovomita sp. J.B. Aublet
-Famille : Combretaceae
-Anangossi, Buchenavia sp. A.W. Eichler
-Anangossi, Terminalia amazonia (J.F. Gmelin) Exell
-Famille : Euphorbiaceae
-Surette Phyllanthus acidus
+Tovomita sp. J.B. Aublet</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Famille : Combretaceae</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Anangossi, Buchenavia sp. A.W. Eichler
+Anangossi, Terminalia amazonia (J.F. Gmelin) Exell</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Famille : Euphorbiaceae</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Surette Phyllanthus acidus
 Drypetes variabilis Uittien
 Bois-diable, sablier, pet-du-diable, Hura crepitans Linnaeus
 Amanoa guianensis, Amanoa guianensis  J.B Aublet
 Hévéa, Hevea guianensis J.B. Aublet
 Kusisi, Conceveiba guianensis J.B. Aublet
 Sepiki udu, Chaetocarpus schomburgkianus (O. Kuntze) F.A. Pax et K. Hoffmann
-Wandecolle, Glycydendron amazonicum Ducke
-Famille : Fabaceae
-Agui, Ormosia coccinea (J.B. Aublet) Jackson
+Wandecolle, Glycydendron amazonicum Ducke</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Famille : Fabaceae</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Agui, Ormosia coccinea (J.B. Aublet) Jackson
 Agui, Ormosia coarctata Jackson
 Cœur dehors, Diplotropis purpurea (L.C. Richard) G.J. Amshoff
 Gaiac de Cayenne, Dipteryx punctata (S.F. Blake) G.J. Amshoff
@@ -700,20 +1410,190 @@
 Saint Martin rouge, Andira surinamensis (Bondt) Splitgerber ex Pulle
 Saint-martin-blanc, neko udu, Ormosia coutinhoi Ducke
 Saint-martin-jaune, Hymenolobium flavum Kleinhoonte
-Saint-martin-rouge, Andira coriacea Pulle
-Famille : Flacourtiaceae
-Kaïman-udu, Laetia procera (Poeppig) A.W. Eichler
-Famille : Humiriaceae
-Bois rouge, Humiria balsamifera (J.B. Aublet) Saint-Hilaire
-Vantanea parviflora, Vantanea parviflora Lamarck
-Famille : Icacinaceae
-Taaputiki, Dendrobangia boliviana Rusby
+Saint-martin-rouge, Andira coriacea Pulle</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Famille : Flacourtiaceae</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Kaïman-udu, Laetia procera (Poeppig) A.W. Eichler</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Famille : Humiriaceae</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Bois rouge, Humiria balsamifera (J.B. Aublet) Saint-Hilaire
+Vantanea parviflora, Vantanea parviflora Lamarck</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Famille : Icacinaceae</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Taaputiki, Dendrobangia boliviana Rusby
 Poraqueiba guianensis J.B. Aublet
-Emmotum fagifolium N.A. Desvaux ex Hamilton
-Famille : Lamiaceae
-Palétuvier blanc, Avicennia germinans (Linnaeus) Stearn
-Famille : Lauraceae
-Bois de rose, Aniba rosaeodora Ducke - espèces arborées indigènes menacées (selon l'UICN)
+Emmotum fagifolium N.A. Desvaux ex Hamilton</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Famille : Lamiaceae</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Palétuvier blanc, Avicennia germinans (Linnaeus) Stearn</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Famille : Lauraceae</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Bois de rose, Aniba rosaeodora Ducke - espèces arborées indigènes menacées (selon l'UICN)
 Bois de rose mâle, Aniba parviflora (Meissner) Mez
 Cèdre blanc, Ocotea guianensis J.B. Aublet
 Cèdre cannelle, Licaria cannella (Meissner) Kostermans
@@ -721,9 +1601,43 @@
 cèdre noir, Ocotea tomentella Sandwith
 Cèdres, Ocotea sp. J.B. Aublet
 Grignon franc, Sextonia rubra (Mew) van der Werff
-Mezilaurus itauba (Meissner) Taubert ex Mez - Espèce arborée indigène vulnérable (selon l'UICN)
-Famille : Lecythidaceae
-Boulet de canon, Couroupita guianensis Aublet
+Mezilaurus itauba (Meissner) Taubert ex Mez - Espèce arborée indigène vulnérable (selon l'UICN)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Famille : Lecythidaceae</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Boulet de canon, Couroupita guianensis Aublet
 Canari macaque, Lecythis zabucajo J.B. Aublet
 Ingui pipa, maho cigare, Couratari multiflora (J.E. Smith) Eyma
 Ingui pipa, maho cigare, Couratari guianensis J.B. Aublet emend. G.T. Prance - Espèce arborée indigène vulnérable (selon l'UICN)
@@ -737,22 +1651,192 @@
 Mahot rouge, Lecythis persistens Sagot
 Lecythis poiteaui (O.C. Berg) Niedenzu
 Noyer du Brésil, Bertholletia excelsa Humboldt et Bonpland - Espèce arborée indigène vulnérable (selon l'UICN)
-Eschweilera squamata S.A. Mori - Espèce arborée indigène vulnérable (selon l'UICN)
-Famille : Linaceae
-Hebepetalum humiriifolium (Planchon) Bentham
-Famille : Malpighiaceae
-Byrsonima sp., L.C. Richard ex Kunth
-Famille : Melastomataceae
-mésoupou - Bellucia grossularioides (L.) Triana
+Eschweilera squamata S.A. Mori - Espèce arborée indigène vulnérable (selon l'UICN)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Famille : Linaceae</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Hebepetalum humiriifolium (Planchon) Bentham</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Famille : Malpighiaceae</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Byrsonima sp., L.C. Richard ex Kunth</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Famille : Melastomataceae</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>mésoupou - Bellucia grossularioides (L.) Triana
 Henriettella ininansis J.J. Wurdack - Espèce arborée indigène vulnérable (selon l'UICN)
-Mouriri crassifolia Sagot
-Famille : Meliaceae
-Acajou de Guyane, cede, Cedrela odorata Linnaeus - Espèce arborée indigène vulnérable (selon l'UICN)
+Mouriri crassifolia Sagot</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Famille : Meliaceae</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Acajou de Guyane, cede, Cedrela odorata Linnaeus - Espèce arborée indigène vulnérable (selon l'UICN)
 Carapa, Carapa guianensis J.B. Aublet
 Carapa, Carapa surinamensis Miqu.
-Swietenia macrophylla King - Espèce arborée indigène vulnérable (selon l'UICN)
-Famille : Mimosaceae
-Acacia franc, Enterolobium schomburgkii (Bentham) Bentham
+Swietenia macrophylla King - Espèce arborée indigène vulnérable (selon l'UICN)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Famille : Mimosaceae</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Acacia franc, Enterolobium schomburgkii (Bentham) Bentham
 Acacia mâle, Enterolobium oldemanii Barneby &amp; Grimes
 Alimiao, Pseudopiptadenia psilostachya (A.P. De Candolle) Lewis et M.P. Lima
 Alimiao, Pseudopiptadenia psilostachya (A.P. De Candolle) Lewis et M.P. Lima
@@ -765,43 +1849,451 @@
 Dodomissinga, Bois macaque, Parkia nitida Miquel
 Kwata kaman, Parkia pendula (C.L. Willdenow) Bentham ex Walpers
 Pois sucré, inga, weko, Inga sp. P. Miller
-Tamalin, Abarema jupunba (C.L. Willdenow) Britton &amp; Killip
-Famille : Moraceae
-Amourette, bois-lettre moucheté, paya, Brosimum guianense (J.B. Aublet) Huber
+Tamalin, Abarema jupunba (C.L. Willdenow) Britton &amp; Killip</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Famille : Moraceae</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Amourette, bois-lettre moucheté, paya, Brosimum guianense (J.B. Aublet) Huber
 Bagasse, Bagassa guianensis J.B. Aublet
 Dokali, Brosimum parinarioides Ducke
 Dokali-mapa, Brosimum utile (Kunth) Pittier
 Figuier étrangleur, inkatu, bois-diable, Ficus nymphaeifolia P. Miller
 Helicostylis tomentosa (Poeppig et Endlicher) Rusby
-Satiné rubané, Brosimum rubescens Taubert
-Famille : Myristicaceae
-Tosopasa marécage, Iryanthera hostmannii (Bentham) Warburg
+Satiné rubané, Brosimum rubescens Taubert</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Famille : Myristicaceae</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Tosopasa marécage, Iryanthera hostmannii (Bentham) Warburg
 Tosopasa montagne, Iryanthera sagotiana (Bentham) Warburg
 Yayamadou marécage, Virola surinamensis (Rolander) Warburg - espèce arborée indigène menacée (selon l'UICN)
-Yayamadou montagne, Virola michelii Heckel
-Famille : Myrtaceae
-Bushi goyaba, Myrcia citrifolia (J.B. Aublet) Urban
-Famille : Olacaceae
-Chaunochiton kappleri (Sagot ex Engler) Ducke
+Yayamadou montagne, Virola michelii Heckel</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Famille : Myrtaceae</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Bushi goyaba, Myrcia citrifolia (J.B. Aublet) Urban</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Famille : Olacaceae</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Chaunochiton kappleri (Sagot ex Engler) Ducke
 Méquoi, mincouar, Minquartia guianensis J.B. Aublet
-Bois-bandé, Ptychopetalum olacoides Bentham
-Famille : Opiliaceae
-Agonandra silvatica Ducke
-Famille : Proteaceae
-Bois grage rose, Euplassa pinnata (Lamarck) Johnston
-Bois grage rouge, Roupala montana J.B. Aublet
-Famille : Quiinaceae
-Lacunaria jenmanii (Oliver) Ducke
-Famille : Rhizophoraceae
-Palétuvier rouge, manglier, Rhizophora racemosa G.F.W. Meyer
-Famille : Rosaceae
-Prunus myrtifolia (Linnaeus) Urban
-Famille : Rubiaceae
-Bois-cathédrale, bois-chapelle, bois pagaïe, Chimarrhis turbinata De Candolle
-Famille : Sapindaceae
-Tatu udu, Talisia sp. J.B. Aublet
-Famille : Sapotaceae
-Balata blanc, bakuman, Micropholis guyanensis (A.L. De Candolle) Pierre
+Bois-bandé, Ptychopetalum olacoides Bentham</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Famille : Opiliaceae</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Agonandra silvatica Ducke</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Famille : Proteaceae</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Bois grage rose, Euplassa pinnata (Lamarck) Johnston
+Bois grage rouge, Roupala montana J.B. Aublet</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Famille : Quiinaceae</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Lacunaria jenmanii (Oliver) Ducke</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Famille : Rhizophoraceae</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Palétuvier rouge, manglier, Rhizophora racemosa G.F.W. Meyer</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Famille : Rosaceae</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Prunus myrtifolia (Linnaeus) Urban</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Famille : Rubiaceae</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Bois-cathédrale, bois-chapelle, bois pagaïe, Chimarrhis turbinata De Candolle</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Famille : Sapindaceae</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Tatu udu, Talisia sp. J.B. Aublet</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Famille : Sapotaceae</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Balata blanc, bakuman, Micropholis guyanensis (A.L. De Candolle) Pierre
 Balata blanc, bakuman, Micropholis melinoniana Pierre
 Balata blanc, bakuman, Micropholis obscura Pennington
 Balata blanc, bakuman, Micropholis sp. (A.H.R. Grisebach) Pierre
@@ -813,26 +2305,230 @@
 Niamboka, Pouteria sp. J.B. Aublet
 Pouteria benai (Aubréville et Pellegrin) Pennington - Espèce arborée indigène vulnérable (selon l'UICN)
 Pouteria torta (Martius) L.A.T. Radlkofer
-Micropholis sp. (A.H.R. Grisebach) Pierre
-Famille : Simaroubaceae
-Simarouba, Simarouba amara J.B. Aublet
-Famille : Sterculiaceae
-Cacao, Theobroma subincanum Martius
+Micropholis sp. (A.H.R. Grisebach) Pierre</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Famille : Simaroubaceae</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Simarouba, Simarouba amara J.B. Aublet</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Famille : Sterculiaceae</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Cacao, Theobroma subincanum Martius
 Cacao, Theobroma cacao Linnaeus
 Kobe, Maho cochon, Sterculia pruriens K. Schumann
-Kobe, Maho cochon, Sterculia speciosa Schumann
-Famille : Tiliaceae
-Djabo udu, Lueheopsis rugosa M. Burret
+Kobe, Maho cochon, Sterculia speciosa Schumann</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Famille : Tiliaceae</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Djabo udu, Lueheopsis rugosa M. Burret
 Peigne-macaque, Apeiba petoumo J.B. Aublet
 Peigne-macaque, Apeiba tibourbou J.B. Aublet
-Peigne-macaque, Apeiba glabra J.B. Aublet
-Famille : Verbenaceae
-Vitex guianensis Moldenke
-Famille : Violaceae
-Rinorea pectino-squamata Hekking - Espèce arborée indigène vulnérable (selon l'UICN)
-Rinorea guianensis
-Famille : Vochysiaceae
-Gonfolo gris, cèdre gris, grignon fou, Ruizterania albiflora (Warming) Marcano-Berti
+Peigne-macaque, Apeiba glabra J.B. Aublet</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Famille : Verbenaceae</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Vitex guianensis Moldenke</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Famille : Violaceae</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Rinorea pectino-squamata Hekking - Espèce arborée indigène vulnérable (selon l'UICN)
+Rinorea guianensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27arbres_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Espèces arborées indigènes</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Famille : Vochysiaceae</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Gonfolo gris, cèdre gris, grignon fou, Ruizterania albiflora (Warming) Marcano-Berti
 Gonfolo rose, gonfolo-kwali, grignon fou, Qualea rosea J.B. Aublet
 Jaboty, feli kwali, Erisma uncinatum Warming
 Wana kwali, grignon fou, Vochysia tomentosa (G.F.W. Meyer) A.P. De Candolle</t>
